--- a/mini-proj1/sources/imm_parent_child_income_comparisoin.xlsx
+++ b/mini-proj1/sources/imm_parent_child_income_comparisoin.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiaxu/Desktop/Decision Analytics/proj1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868544DB-B84A-004F-B189-61A6B4BE2DD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D14D31-DE43-DA4B-AFDF-6E397C88AFC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17880" windowHeight="16920" activeTab="1" xr2:uid="{5033E6C8-608B-EB4F-8474-451B3A7F3DC4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Baltimore" sheetId="3" r:id="rId1"/>
     <sheet name="New York" sheetId="1" r:id="rId2"/>
-    <sheet name="Baltimore" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Baltimore!$B$2:$B$4</definedName>
@@ -25,9 +24,6 @@
     <definedName name="_xlchart.v1.4" hidden="1">Baltimore!$C$8:$C$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>parent_income</t>
   </si>
@@ -73,12 +69,6 @@
   </si>
   <si>
     <t>asian</t>
-  </si>
-  <si>
-    <t>(All)</t>
-  </si>
-  <si>
-    <t>Average of ind_income</t>
   </si>
   <si>
     <t>avg_ind_income</t>
@@ -125,11 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -161,12 +149,46 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[imm_parent_child_income_comparisoin.xlsx]Sheet2!PivotTable5</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Figure3. Average Individual Income</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Relative to Parent Income </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>for Immigrants in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Baltimore</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -197,120 +219,248 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>black</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$5</c:f>
+              <c:f>Baltimore!$B$2:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>middle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$5</c:f>
+              <c:f>Baltimore!$C$2:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6449-7D4E-B897-CE8DA793B73E}"/>
+              <c16:uniqueId val="{00000000-11DE-9549-A075-76C09B46552E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>white</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baltimore!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>middle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baltimore!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11DE-9549-A075-76C09B46552E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>hispanic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baltimore!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>middle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baltimore!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11DE-9549-A075-76C09B46552E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>asian</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baltimore!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>middle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baltimore!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-11DE-9549-A075-76C09B46552E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -322,18 +472,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="172240704"/>
-        <c:axId val="289871952"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="265773200"/>
+        <c:axId val="195745936"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="172240704"/>
+        <c:axId val="265773200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Parent Income Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -371,7 +575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289871952"/>
+        <c:crossAx val="195745936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289871952"/>
+        <c:axId val="195745936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +603,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Individual Income</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -430,7 +689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172240704"/>
+        <c:crossAx val="265773200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,22 +773,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -566,6 +809,14 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Figure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 4: </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Average Individual Income Relative</a:t>
@@ -1168,646 +1419,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Individual Income</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Relative to Parent Income </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>for Immigrants in</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Baltimore</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>black</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baltimore!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>middle</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>high</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baltimore!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-11DE-9549-A075-76C09B46552E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>white</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baltimore!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>middle</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>high</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baltimore!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-11DE-9549-A075-76C09B46552E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>hispanic</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baltimore!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>middle</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>high</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baltimore!$C$8:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-11DE-9549-A075-76C09B46552E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>asian</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baltimore!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>middle</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>high</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baltimore!$C$11:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-11DE-9549-A075-76C09B46552E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="265773200"/>
-        <c:axId val="195745936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="265773200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Parent Income Level</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195745936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="195745936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Individual Income</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="265773200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1888,48 +1499,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2037,6 +1608,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2047,6 +1623,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2078,6 +1659,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2432,522 +2016,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3468,22 +2536,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62867E55-1817-834F-8ACA-D700DCBF613E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37BC5CE-AA51-234A-A28D-5DBDF63332FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,227 +2611,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37BC5CE-AA51-234A-A28D-5DBDF63332FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44238.11563148148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12" xr:uid="{B5B0733C-A177-B248-B427-A4169888F9D4}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D1:E13" sheet="New York"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="parent_income" numFmtId="0">
-      <sharedItems count="3">
-        <s v="high"/>
-        <s v="middle"/>
-        <s v="low"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="child_race" numFmtId="0">
-      <sharedItems count="4">
-        <s v="black"/>
-        <s v="white"/>
-        <s v="hispanic"/>
-        <s v="asian"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="ind_income" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="28000" maxValue="44000" count="9">
-        <n v="33000"/>
-        <n v="31000"/>
-        <n v="28000"/>
-        <n v="40000"/>
-        <n v="35000"/>
-        <n v="32000"/>
-        <n v="29000"/>
-        <n v="44000"/>
-        <n v="38000"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="8"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E829AD8F-623A-7444-9059-32E290A8F785}" name="PivotTable5" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="3" showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of ind_income" fld="2" subtotal="average" showDataAs="index" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4062,48 +2909,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DC10F4-27A9-6844-ABBC-2452D8B0671D}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39322910-F6AE-2B4D-9D3F-A096C1B4F3EA}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A13" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36000</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>34000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>31000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4111,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24DD077-4948-8F49-984A-99E007D950E4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4121,14 +3081,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4268,163 +3228,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39322910-F6AE-2B4D-9D3F-A096C1B4F3EA}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>31000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>